--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T06:12:01+00:00</t>
+    <t>2022-11-10T09:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T09:26:17+00:00</t>
+    <t>2022-11-11T06:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T06:34:01+00:00</t>
+    <t>2022-11-11T10:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T10:19:33+00:00</t>
+    <t>2022-11-11T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T14:17:22+00:00</t>
+    <t>2022-11-11T14:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T14:59:33+00:00</t>
+    <t>2022-11-22T11:12:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:12:53+00:00</t>
+    <t>2022-11-22T14:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:31:57+00:00</t>
+    <t>2022-11-23T06:27:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T06:27:07+00:00</t>
+    <t>2022-11-25T10:22:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:22:52+00:00</t>
+    <t>2022-11-25T13:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-presenting-symptoms</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-presenting-symptoms</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T13:25:06+00:00</t>
+    <t>2022-11-25T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -645,7 +645,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-symptoms</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-symptoms</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1759,7 +1759,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-presenting-symptoms</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-presenting-symptoms</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T14:14:34+00:00</t>
+    <t>2022-11-28T06:50:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -645,7 +645,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-symptoms</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-symptoms</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1759,7 +1759,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T06:50:59+00:00</t>
+    <t>2022-11-28T08:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T08:23:30+00:00</t>
+    <t>2022-11-28T09:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T09:07:59+00:00</t>
+    <t>2022-11-28T09:59:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T09:59:43+00:00</t>
+    <t>2022-11-28T13:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:41:14+00:00</t>
+    <t>2022-11-28T14:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:56:48+00:00</t>
+    <t>2022-11-29T10:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:50:32+00:00</t>
+    <t>2022-11-29T13:22:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:22:36+00:00</t>
+    <t>2022-11-29T13:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:43:38+00:00</t>
+    <t>2022-11-29T15:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:00:23+00:00</t>
+    <t>2022-11-29T15:28:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:28:54+00:00</t>
+    <t>2022-11-29T15:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:52:33+00:00</t>
+    <t>2022-11-29T16:19:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:19:00+00:00</t>
+    <t>2022-11-29T16:44:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:44:21+00:00</t>
+    <t>2022-11-29T17:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:25:06+00:00</t>
+    <t>2022-11-30T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$51</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:35:21+00:00</t>
+    <t>2022-11-30T07:52:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,6 +568,9 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -758,8 +758,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -774,6 +774,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -784,6 +791,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -968,6 +978,107 @@
     <t>subjectOf.observationEvent[code="annotation"].value</t>
   </si>
   <si>
+    <t>Observation.note.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.note.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>authorReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Observation.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Observation.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
@@ -1117,29 +1228,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1535,21 +1624,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1726,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1736,7 +1810,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1762,7 +1836,7 @@
     <col min="25" max="25" width="64.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1903,7 +1977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2020,7 +2094,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2137,7 +2211,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2252,7 +2326,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2369,7 +2443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2486,7 +2560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -2603,7 +2677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -2720,7 +2794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -2837,7 +2911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -2956,7 +3030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -3073,7 +3147,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3190,7 +3264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>164</v>
       </c>
@@ -3307,7 +3381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>173</v>
       </c>
@@ -3354,7 +3428,7 @@
         <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>80</v>
@@ -3369,13 +3443,13 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>80</v>
@@ -3408,27 +3482,27 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3451,19 +3525,19 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3491,10 +3565,10 @@
         <v>113</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3512,7 +3586,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3536,10 +3610,10 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3547,11 +3621,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3561,7 +3635,7 @@
         <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3570,19 +3644,19 @@
         <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3607,11 +3681,11 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3629,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>89</v>
@@ -3644,27 +3718,27 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3672,7 +3746,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>89</v>
@@ -3687,19 +3761,19 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3748,7 +3822,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3763,27 +3837,27 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3806,16 +3880,16 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3865,7 +3939,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3886,29 +3960,29 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>89</v>
@@ -3923,19 +3997,19 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -3984,7 +4058,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3999,35 +4073,35 @@
         <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>89</v>
@@ -4042,19 +4116,19 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4091,19 +4165,17 @@
         <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4118,35 +4190,37 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>89</v>
@@ -4161,18 +4235,20 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4220,7 +4296,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4235,27 +4311,27 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4266,7 +4342,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -4278,18 +4354,18 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4337,13 +4413,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4352,27 +4428,27 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4383,7 +4459,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>80</v>
@@ -4395,19 +4471,17 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4456,42 +4530,42 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4511,22 +4585,22 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4551,13 +4625,13 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
@@ -4575,7 +4649,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4584,7 +4658,7 @@
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
@@ -4593,35 +4667,35 @@
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -4633,19 +4707,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4670,13 +4744,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4694,16 +4768,16 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>101</v>
@@ -4712,28 +4786,28 @@
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4743,7 +4817,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4752,19 +4826,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4789,13 +4863,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4813,7 +4887,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4831,24 +4905,24 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4871,18 +4945,20 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4906,13 +4982,13 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
@@ -4930,13 +5006,13 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
@@ -4948,24 +5024,24 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4988,20 +5064,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5025,13 +5097,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5049,7 +5121,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5061,7 +5133,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5070,10 +5142,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5082,20 +5154,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5107,16 +5179,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>326</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5154,54 +5226,54 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5221,19 +5293,19 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5271,19 +5343,17 @@
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5301,26 +5371,28 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>340</v>
+        <v>132</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5329,7 +5401,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5338,23 +5410,21 @@
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5402,19 +5472,19 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>349</v>
+        <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
@@ -5423,10 +5493,10 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5435,9 +5505,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5457,16 +5527,16 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>353</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5517,7 +5587,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5529,7 +5599,7 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
@@ -5538,10 +5608,10 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5550,20 +5620,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5572,20 +5642,18 @@
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>135</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5634,19 +5702,19 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>80</v>
@@ -5655,10 +5723,10 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5667,45 +5735,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5729,13 +5795,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5753,42 +5819,42 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5811,16 +5877,20 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>367</v>
+        <v>188</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5844,13 +5914,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5868,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5877,7 +5947,7 @@
         <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>101</v>
@@ -5889,10 +5959,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5901,9 +5971,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5926,15 +5996,17 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -5983,7 +6055,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5992,7 +6064,7 @@
         <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
@@ -6001,24 +6073,24 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6041,20 +6113,18 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>187</v>
+        <v>371</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6078,13 +6148,13 @@
         <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>80</v>
@@ -6102,7 +6172,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6120,24 +6190,24 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6160,19 +6230,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>187</v>
+        <v>380</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6197,13 +6267,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6221,7 +6291,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6233,19 +6303,19 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6254,9 +6324,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6279,18 +6349,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>396</v>
+        <v>312</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6338,7 +6406,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6350,7 +6418,7 @@
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>80</v>
@@ -6362,7 +6430,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6371,20 +6439,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6396,15 +6464,17 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>353</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>400</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6453,19 +6523,19 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>399</v>
+        <v>320</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>80</v>
@@ -6474,10 +6544,10 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6486,13 +6556,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6505,24 +6575,26 @@
         <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6570,7 +6642,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6582,7 +6654,7 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>80</v>
@@ -6591,10 +6663,10 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6603,9 +6675,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6616,7 +6688,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6625,20 +6697,18 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6687,16 +6757,16 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>101</v>
@@ -6708,10 +6778,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6720,9 +6790,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6733,7 +6803,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -6742,23 +6812,19 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6806,16 +6872,16 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
@@ -6827,10 +6893,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6839,9 +6905,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6864,16 +6930,20 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6897,13 +6967,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -6921,7 +6991,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6933,19 +7003,19 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -6954,13 +7024,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6979,18 +7049,20 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>136</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7014,13 +7086,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7038,7 +7110,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7050,19 +7122,19 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7071,44 +7143,42 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7157,19 +7227,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7181,7 +7251,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>427</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7190,9 +7260,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7200,7 +7270,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>89</v>
@@ -7212,23 +7282,19 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7252,13 +7318,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7276,10 +7342,10 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>89</v>
@@ -7294,24 +7360,24 @@
         <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7322,7 +7388,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7334,20 +7400,18 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>267</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7395,13 +7459,13 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
@@ -7413,24 +7477,24 @@
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>273</v>
+        <v>438</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7441,7 +7505,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7450,23 +7514,21 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>187</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7490,13 +7552,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7514,16 +7576,16 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>101</v>
@@ -7535,10 +7597,10 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>132</v>
+        <v>437</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>284</v>
+        <v>444</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7547,13 +7609,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7569,22 +7631,22 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>187</v>
+        <v>380</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>287</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>288</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7609,13 +7671,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7633,7 +7695,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7651,24 +7713,24 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>294</v>
+        <v>450</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>295</v>
+        <v>451</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7679,7 +7741,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7691,20 +7753,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7752,58 +7810,871 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI51" t="s" s="2">
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO51" t="s" s="2">
+      <c r="AJ54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:52:50+00:00</t>
+    <t>2022-11-30T09:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:12:59+00:00</t>
+    <t>2022-11-30T11:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:35:18+00:00</t>
+    <t>2022-11-30T11:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:59:57+00:00</t>
+    <t>2022-11-30T13:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:03:35+00:00</t>
+    <t>2022-11-30T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:32:33+00:00</t>
+    <t>2022-12-01T07:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:10:15+00:00</t>
+    <t>2022-12-01T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:50:10+00:00</t>
+    <t>2022-12-01T08:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:28:25+00:00</t>
+    <t>2022-12-01T12:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T12:14:26+00:00</t>
+    <t>2022-12-01T15:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:41:11+00:00</t>
+    <t>2022-12-01T18:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T18:12:17+00:00</t>
+    <t>2022-12-01T19:34:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:34:39+00:00</t>
+    <t>2022-12-02T06:33:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:33:16+00:00</t>
+    <t>2022-12-02T09:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:37:58+00:00</t>
+    <t>2022-12-02T12:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -824,7 +824,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1039,10 +1039,6 @@
   </si>
   <si>
     <t>authorReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Observation.note.time</t>
@@ -5413,7 +5409,7 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>323</v>
@@ -5507,7 +5503,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5533,10 +5529,10 @@
         <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5587,7 +5583,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5611,7 +5607,7 @@
         <v>132</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5622,7 +5618,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5645,13 +5641,13 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5702,7 +5698,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5726,7 +5722,7 @@
         <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5737,7 +5733,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5763,13 +5759,13 @@
         <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5795,14 +5791,14 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5819,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5837,24 +5833,24 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5880,16 +5876,16 @@
         <v>188</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5914,14 +5910,14 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5938,7 +5934,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5959,10 +5955,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5973,7 +5969,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5996,16 +5992,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6055,7 +6051,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6073,24 +6069,24 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6113,16 +6109,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6172,7 +6168,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6190,24 +6186,24 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6230,19 +6226,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6291,7 +6287,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6303,19 +6299,19 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6326,7 +6322,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6441,7 +6437,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6558,11 +6554,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6584,10 +6580,10 @@
         <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>138</v>
@@ -6642,7 +6638,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6677,7 +6673,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6700,13 +6696,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6757,7 +6753,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6766,7 +6762,7 @@
         <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>101</v>
@@ -6778,10 +6774,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6792,7 +6788,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6815,13 +6811,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6872,7 +6868,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6881,7 +6877,7 @@
         <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
@@ -6893,10 +6889,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6907,7 +6903,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6933,16 +6929,16 @@
         <v>188</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6970,11 +6966,11 @@
         <v>113</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6991,7 +6987,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7009,10 +7005,10 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>299</v>
@@ -7026,7 +7022,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7052,16 +7048,16 @@
         <v>188</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7086,14 +7082,14 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7110,7 +7106,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7128,10 +7124,10 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>299</v>
@@ -7145,7 +7141,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7168,17 +7164,17 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7227,7 +7223,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7251,7 +7247,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7262,7 +7258,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7288,10 +7284,10 @@
         <v>310</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7342,7 +7338,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7363,10 +7359,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7377,7 +7373,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7400,16 +7396,16 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7459,7 +7455,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7480,10 +7476,10 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7494,7 +7490,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7517,16 +7513,16 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7576,7 +7572,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7597,10 +7593,10 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7611,7 +7607,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7634,19 +7630,19 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7695,7 +7691,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7716,10 +7712,10 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7730,7 +7726,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7845,7 +7841,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7962,11 +7958,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7988,10 +7984,10 @@
         <v>135</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>138</v>
@@ -8046,7 +8042,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8081,7 +8077,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8107,13 +8103,13 @@
         <v>188</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>202</v>
@@ -8141,14 +8137,14 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8165,7 +8161,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>89</v>
@@ -8183,7 +8179,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>206</v>
@@ -8200,7 +8196,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8226,13 +8222,13 @@
         <v>269</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>273</v>
@@ -8284,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8302,7 +8298,7 @@
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>276</v>
@@ -8319,7 +8315,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8345,13 +8341,13 @@
         <v>188</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>283</v>
@@ -8403,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8438,7 +8434,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8522,7 +8518,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8557,7 +8553,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8583,16 +8579,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8641,7 +8637,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8662,10 +8658,10 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:32:21+00:00</t>
+    <t>2023-01-11T14:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:31:51+00:00</t>
+    <t>2023-01-11T15:47:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:47:52+00:00</t>
+    <t>2023-01-11T16:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T16:39:12+00:00</t>
+    <t>2023-01-12T06:02:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T06:02:57+00:00</t>
+    <t>2023-01-12T13:20:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T13:20:19+00:00</t>
+    <t>2023-01-12T14:08:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T14:08:07+00:00</t>
+    <t>2023-01-12T14:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T14:55:30+00:00</t>
+    <t>2023-01-12T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T16:14:01+00:00</t>
+    <t>2023-01-12T16:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T16:41:50+00:00</t>
+    <t>2023-01-12T17:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T17:05:04+00:00</t>
+    <t>2023-01-12T17:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T17:34:31+00:00</t>
+    <t>2023-01-12T19:06:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T19:06:40+00:00</t>
+    <t>2023-01-12T19:39:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T19:39:17+00:00</t>
+    <t>2023-01-13T06:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T06:54:07+00:00</t>
+    <t>2023-01-13T07:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T07:29:30+00:00</t>
+    <t>2023-01-13T08:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T08:57:34+00:00</t>
+    <t>2023-01-13T09:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T09:58:50+00:00</t>
+    <t>2023-01-13T10:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T10:29:27+00:00</t>
+    <t>2023-01-16T11:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T11:51:15+00:00</t>
+    <t>2023-01-16T12:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T12:33:27+00:00</t>
+    <t>2023-01-16T14:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T14:19:38+00:00</t>
+    <t>2023-01-16T14:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T14:48:34+00:00</t>
+    <t>2023-01-16T15:26:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:26:09+00:00</t>
+    <t>2023-01-16T15:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:57:09+00:00</t>
+    <t>2023-01-16T16:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T16:56:22+00:00</t>
+    <t>2023-01-16T17:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T17:14:17+00:00</t>
+    <t>2023-01-16T17:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T17:43:27+00:00</t>
+    <t>2023-01-16T18:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T18:10:54+00:00</t>
+    <t>2023-01-17T06:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T06:23:50+00:00</t>
+    <t>2023-01-17T07:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T07:03:05+00:00</t>
+    <t>2023-01-17T07:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T07:32:01+00:00</t>
+    <t>2023-01-17T08:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T08:15:18+00:00</t>
+    <t>2023-01-17T08:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T11:11:06+00:00</t>
+    <t>2023-01-17T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T11:46:45+00:00</t>
+    <t>2023-01-17T13:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T13:03:59+00:00</t>
+    <t>2023-01-17T14:44:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T14:44:37+00:00</t>
+    <t>2023-01-17T15:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T15:24:16+00:00</t>
+    <t>2023-01-17T16:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T16:11:06+00:00</t>
+    <t>2023-01-18T09:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T09:08:24+00:00</t>
+    <t>2023-01-18T12:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T12:04:25+00:00</t>
+    <t>2023-01-18T12:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T12:48:48+00:00</t>
+    <t>2023-01-18T14:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:34:48+00:00</t>
+    <t>2023-01-19T12:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T12:12:19+00:00</t>
+    <t>2023-01-20T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T14:21:04+00:00</t>
+    <t>2023-01-21T13:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T13:28:04+00:00</t>
+    <t>2023-01-23T10:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T10:58:26+00:00</t>
+    <t>2023-01-23T16:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:01:34+00:00</t>
+    <t>2023-01-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T12:59:21+00:00</t>
+    <t>2023-01-25T07:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T07:53:15+00:00</t>
+    <t>2023-01-25T13:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:17:11+00:00</t>
+    <t>2023-01-25T15:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T15:28:11+00:00</t>
+    <t>2023-01-26T13:59:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T13:59:31+00:00</t>
+    <t>2023-01-27T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T13:52:39+00:00</t>
+    <t>2023-01-28T12:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-28T12:05:49+00:00</t>
+    <t>2023-01-31T09:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T09:39:29+00:00</t>
+    <t>2023-01-31T16:23:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T16:23:08+00:00</t>
+    <t>2023-02-01T07:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:41:44+00:00</t>
+    <t>2023-02-01T15:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:14:51+00:00</t>
+    <t>2023-02-03T06:45:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T06:45:37+00:00</t>
+    <t>2023-02-03T16:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T16:07:07+00:00</t>
+    <t>2023-02-06T16:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T16:11:51+00:00</t>
+    <t>2023-02-06T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T16:23:37+00:00</t>
+    <t>2023-02-07T09:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T09:59:06+00:00</t>
+    <t>2023-02-07T10:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T10:23:57+00:00</t>
+    <t>2023-02-07T15:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T15:49:26+00:00</t>
+    <t>2023-02-09T06:56:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T06:56:17+00:00</t>
+    <t>2023-02-17T06:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:44:04+00:00</t>
+    <t>2023-02-17T13:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T13:07:02+00:00</t>
+    <t>2023-02-20T07:31:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:31:23+00:00</t>
+    <t>2023-02-24T05:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T05:16:13+00:00</t>
+    <t>2023-02-24T12:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T12:41:05+00:00</t>
+    <t>2023-02-27T13:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:21:54+00:00</t>
+    <t>2023-02-28T10:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:02:19+00:00</t>
+    <t>2023-03-02T06:03:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:12+00:00</t>
+    <t>2023-03-03T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:24:05+00:00</t>
+    <t>2023-03-09T10:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:20:35+00:00</t>
+    <t>2023-03-09T14:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:36:45+00:00</t>
+    <t>2023-03-13T06:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
+++ b/branches/master/StructureDefinition-covid19-presenting-symptoms.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T06:32:29+00:00</t>
+    <t>2023-04-04T11:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
